--- a/AP_evidence_comparison_24oct2024.xlsx
+++ b/AP_evidence_comparison_24oct2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\IPC-HQ\Evidence Comparison Analysis\AP_EVIDENCE_COMPARISON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3896FC1-9F16-44A2-B25D-2C1277D8C354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7D170E-64F0-44B8-B38A-B7956295F2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4078CA29-F590-4DC0-B24F-CE1A804B037C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9225" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9537" uniqueCount="946">
   <si>
     <t>Key2</t>
   </si>
@@ -2872,6 +2872,9 @@
   </si>
   <si>
     <t>wfp_pulses_price_historical_trend</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
   </si>
 </sst>
 </file>
@@ -3246,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729FF14D-B4BC-48C2-9FB4-6F7694E55182}">
   <dimension ref="A1:O1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="A1:O1059"/>
+    <sheetView tabSelected="1" topLeftCell="C1035" workbookViewId="0">
+      <selection activeCell="O1059" sqref="O1059"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3259,6 +3262,7 @@
     <col min="6" max="6" width="12.4609375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.53515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.921875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.53515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.3046875" bestFit="1" customWidth="1"/>
   </cols>
@@ -45741,9 +45745,15 @@
       <c r="L904" s="1">
         <v>1</v>
       </c>
-      <c r="M904" s="1"/>
-      <c r="N904" s="1"/>
-      <c r="O904" s="1"/>
+      <c r="M904" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N904" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O904" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="905" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A905" s="1" t="s">
@@ -45782,9 +45792,15 @@
       <c r="L905" s="1">
         <v>1</v>
       </c>
-      <c r="M905" s="1"/>
-      <c r="N905" s="1"/>
-      <c r="O905" s="1"/>
+      <c r="M905" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N905" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O905" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="906" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A906" s="1" t="s">
@@ -45823,9 +45839,15 @@
       <c r="L906" s="1">
         <v>1</v>
       </c>
-      <c r="M906" s="1"/>
-      <c r="N906" s="1"/>
-      <c r="O906" s="1"/>
+      <c r="M906" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N906" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O906" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="907" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A907" s="1" t="s">
@@ -45864,9 +45886,15 @@
       <c r="L907" s="1">
         <v>1</v>
       </c>
-      <c r="M907" s="1"/>
-      <c r="N907" s="1"/>
-      <c r="O907" s="1"/>
+      <c r="M907" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N907" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O907" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="908" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A908" s="1" t="s">
@@ -45905,9 +45933,15 @@
       <c r="L908" s="1">
         <v>1</v>
       </c>
-      <c r="M908" s="1"/>
-      <c r="N908" s="1"/>
-      <c r="O908" s="1"/>
+      <c r="M908" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N908" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O908" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="909" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A909" s="1" t="s">
@@ -45946,9 +45980,15 @@
       <c r="L909" s="1">
         <v>1</v>
       </c>
-      <c r="M909" s="1"/>
-      <c r="N909" s="1"/>
-      <c r="O909" s="1"/>
+      <c r="M909" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N909" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O909" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="910" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A910" s="1" t="s">
@@ -45987,9 +46027,15 @@
       <c r="L910" s="1">
         <v>1</v>
       </c>
-      <c r="M910" s="1"/>
-      <c r="N910" s="1"/>
-      <c r="O910" s="1"/>
+      <c r="M910" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N910" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O910" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="911" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A911" s="1" t="s">
@@ -46028,9 +46074,15 @@
       <c r="L911" s="1">
         <v>1</v>
       </c>
-      <c r="M911" s="1"/>
-      <c r="N911" s="1"/>
-      <c r="O911" s="1"/>
+      <c r="M911" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N911" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O911" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="912" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A912" s="1" t="s">
@@ -46069,9 +46121,15 @@
       <c r="L912" s="1">
         <v>1</v>
       </c>
-      <c r="M912" s="1"/>
-      <c r="N912" s="1"/>
-      <c r="O912" s="1"/>
+      <c r="M912" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N912" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O912" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="913" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A913" s="1" t="s">
@@ -46110,9 +46168,15 @@
       <c r="L913" s="1">
         <v>1</v>
       </c>
-      <c r="M913" s="1"/>
-      <c r="N913" s="1"/>
-      <c r="O913" s="1"/>
+      <c r="M913" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N913" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O913" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="914" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A914" s="1" t="s">
@@ -46151,9 +46215,15 @@
       <c r="L914" s="1">
         <v>1</v>
       </c>
-      <c r="M914" s="1"/>
-      <c r="N914" s="1"/>
-      <c r="O914" s="1"/>
+      <c r="M914" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N914" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O914" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="915" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A915" s="1" t="s">
@@ -46192,9 +46262,15 @@
       <c r="L915" s="1">
         <v>1</v>
       </c>
-      <c r="M915" s="1"/>
-      <c r="N915" s="1"/>
-      <c r="O915" s="1"/>
+      <c r="M915" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N915" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O915" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="916" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A916" s="1" t="s">
@@ -46233,9 +46309,15 @@
       <c r="L916" s="1">
         <v>1</v>
       </c>
-      <c r="M916" s="1"/>
-      <c r="N916" s="1"/>
-      <c r="O916" s="1"/>
+      <c r="M916" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N916" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O916" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="917" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A917" s="1" t="s">
@@ -46274,9 +46356,15 @@
       <c r="L917" s="1">
         <v>1</v>
       </c>
-      <c r="M917" s="1"/>
-      <c r="N917" s="1"/>
-      <c r="O917" s="1"/>
+      <c r="M917" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N917" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O917" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="918" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A918" s="1" t="s">
@@ -46315,9 +46403,15 @@
       <c r="L918" s="1">
         <v>1</v>
       </c>
-      <c r="M918" s="1"/>
-      <c r="N918" s="1"/>
-      <c r="O918" s="1"/>
+      <c r="M918" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N918" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O918" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="919" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A919" s="1" t="s">
@@ -46356,9 +46450,15 @@
       <c r="L919" s="1">
         <v>1</v>
       </c>
-      <c r="M919" s="1"/>
-      <c r="N919" s="1"/>
-      <c r="O919" s="1"/>
+      <c r="M919" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N919" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O919" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="920" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A920" s="1" t="s">
@@ -46397,9 +46497,15 @@
       <c r="L920" s="1">
         <v>1</v>
       </c>
-      <c r="M920" s="1"/>
-      <c r="N920" s="1"/>
-      <c r="O920" s="1"/>
+      <c r="M920" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N920" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O920" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="921" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A921" s="1" t="s">
@@ -46438,9 +46544,15 @@
       <c r="L921" s="1">
         <v>1</v>
       </c>
-      <c r="M921" s="1"/>
-      <c r="N921" s="1"/>
-      <c r="O921" s="1"/>
+      <c r="M921" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N921" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O921" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="922" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A922" s="1" t="s">
@@ -46479,9 +46591,15 @@
       <c r="L922" s="1">
         <v>1</v>
       </c>
-      <c r="M922" s="1"/>
-      <c r="N922" s="1"/>
-      <c r="O922" s="1"/>
+      <c r="M922" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N922" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O922" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="923" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A923" s="1" t="s">
@@ -46520,9 +46638,15 @@
       <c r="L923" s="1">
         <v>1</v>
       </c>
-      <c r="M923" s="1"/>
-      <c r="N923" s="1"/>
-      <c r="O923" s="1"/>
+      <c r="M923" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N923" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O923" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="924" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A924" s="1" t="s">
@@ -46561,9 +46685,15 @@
       <c r="L924" s="1">
         <v>1</v>
       </c>
-      <c r="M924" s="1"/>
-      <c r="N924" s="1"/>
-      <c r="O924" s="1"/>
+      <c r="M924" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N924" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O924" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="925" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A925" s="1" t="s">
@@ -46602,9 +46732,15 @@
       <c r="L925" s="1">
         <v>1</v>
       </c>
-      <c r="M925" s="1"/>
-      <c r="N925" s="1"/>
-      <c r="O925" s="1"/>
+      <c r="M925" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N925" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O925" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="926" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A926" s="1" t="s">
@@ -46643,9 +46779,15 @@
       <c r="L926" s="1">
         <v>1</v>
       </c>
-      <c r="M926" s="1"/>
-      <c r="N926" s="1"/>
-      <c r="O926" s="1"/>
+      <c r="M926" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N926" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O926" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="927" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A927" s="1" t="s">
@@ -46684,9 +46826,15 @@
       <c r="L927" s="1">
         <v>1</v>
       </c>
-      <c r="M927" s="1"/>
-      <c r="N927" s="1"/>
-      <c r="O927" s="1"/>
+      <c r="M927" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N927" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O927" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="928" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A928" s="1" t="s">
@@ -46725,9 +46873,15 @@
       <c r="L928" s="1">
         <v>1</v>
       </c>
-      <c r="M928" s="1"/>
-      <c r="N928" s="1"/>
-      <c r="O928" s="1"/>
+      <c r="M928" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N928" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O928" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="929" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A929" s="1" t="s">
@@ -46766,9 +46920,15 @@
       <c r="L929" s="1">
         <v>1</v>
       </c>
-      <c r="M929" s="1"/>
-      <c r="N929" s="1"/>
-      <c r="O929" s="1"/>
+      <c r="M929" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N929" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O929" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="930" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A930" s="1" t="s">
@@ -46807,9 +46967,15 @@
       <c r="L930" s="1">
         <v>1</v>
       </c>
-      <c r="M930" s="1"/>
-      <c r="N930" s="1"/>
-      <c r="O930" s="1"/>
+      <c r="M930" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N930" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O930" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="931" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A931" s="1" t="s">
@@ -46848,9 +47014,15 @@
       <c r="L931" s="1">
         <v>1</v>
       </c>
-      <c r="M931" s="1"/>
-      <c r="N931" s="1"/>
-      <c r="O931" s="1"/>
+      <c r="M931" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N931" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O931" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="932" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A932" s="1" t="s">
@@ -46889,9 +47061,15 @@
       <c r="L932" s="1">
         <v>1</v>
       </c>
-      <c r="M932" s="1"/>
-      <c r="N932" s="1"/>
-      <c r="O932" s="1"/>
+      <c r="M932" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N932" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O932" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="933" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A933" s="1" t="s">
@@ -46930,9 +47108,15 @@
       <c r="L933" s="1">
         <v>1</v>
       </c>
-      <c r="M933" s="1"/>
-      <c r="N933" s="1"/>
-      <c r="O933" s="1"/>
+      <c r="M933" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N933" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O933" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="934" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A934" s="1" t="s">
@@ -46971,9 +47155,15 @@
       <c r="L934" s="1">
         <v>1</v>
       </c>
-      <c r="M934" s="1"/>
-      <c r="N934" s="1"/>
-      <c r="O934" s="1"/>
+      <c r="M934" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N934" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O934" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="935" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A935" s="1" t="s">
@@ -47012,9 +47202,15 @@
       <c r="L935" s="1">
         <v>1</v>
       </c>
-      <c r="M935" s="1"/>
-      <c r="N935" s="1"/>
-      <c r="O935" s="1"/>
+      <c r="M935" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N935" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O935" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="936" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A936" s="1" t="s">
@@ -47053,9 +47249,15 @@
       <c r="L936" s="1">
         <v>1</v>
       </c>
-      <c r="M936" s="1"/>
-      <c r="N936" s="1"/>
-      <c r="O936" s="1"/>
+      <c r="M936" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N936" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O936" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="937" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A937" s="1" t="s">
@@ -47094,9 +47296,15 @@
       <c r="L937" s="1">
         <v>1</v>
       </c>
-      <c r="M937" s="1"/>
-      <c r="N937" s="1"/>
-      <c r="O937" s="1"/>
+      <c r="M937" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N937" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O937" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="938" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A938" s="1" t="s">
@@ -47135,9 +47343,15 @@
       <c r="L938" s="1">
         <v>1</v>
       </c>
-      <c r="M938" s="1"/>
-      <c r="N938" s="1"/>
-      <c r="O938" s="1"/>
+      <c r="M938" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N938" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O938" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="939" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A939" s="1" t="s">
@@ -47176,9 +47390,15 @@
       <c r="L939" s="1">
         <v>1</v>
       </c>
-      <c r="M939" s="1"/>
-      <c r="N939" s="1"/>
-      <c r="O939" s="1"/>
+      <c r="M939" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N939" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O939" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="940" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A940" s="1" t="s">
@@ -47217,9 +47437,15 @@
       <c r="L940" s="1">
         <v>1</v>
       </c>
-      <c r="M940" s="1"/>
-      <c r="N940" s="1"/>
-      <c r="O940" s="1"/>
+      <c r="M940" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N940" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O940" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="941" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A941" s="1" t="s">
@@ -47258,9 +47484,15 @@
       <c r="L941" s="1">
         <v>1</v>
       </c>
-      <c r="M941" s="1"/>
-      <c r="N941" s="1"/>
-      <c r="O941" s="1"/>
+      <c r="M941" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N941" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O941" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="942" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A942" s="1" t="s">
@@ -47299,9 +47531,15 @@
       <c r="L942" s="1">
         <v>1</v>
       </c>
-      <c r="M942" s="1"/>
-      <c r="N942" s="1"/>
-      <c r="O942" s="1"/>
+      <c r="M942" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N942" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O942" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="943" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A943" s="1" t="s">
@@ -47340,9 +47578,15 @@
       <c r="L943" s="1">
         <v>1</v>
       </c>
-      <c r="M943" s="1"/>
-      <c r="N943" s="1"/>
-      <c r="O943" s="1"/>
+      <c r="M943" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N943" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O943" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="944" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A944" s="1" t="s">
@@ -47381,9 +47625,15 @@
       <c r="L944" s="1">
         <v>1</v>
       </c>
-      <c r="M944" s="1"/>
-      <c r="N944" s="1"/>
-      <c r="O944" s="1"/>
+      <c r="M944" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N944" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O944" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="945" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A945" s="1" t="s">
@@ -47422,9 +47672,15 @@
       <c r="L945" s="1">
         <v>1</v>
       </c>
-      <c r="M945" s="1"/>
-      <c r="N945" s="1"/>
-      <c r="O945" s="1"/>
+      <c r="M945" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N945" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O945" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="946" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A946" s="1" t="s">
@@ -47463,9 +47719,15 @@
       <c r="L946" s="1">
         <v>1</v>
       </c>
-      <c r="M946" s="1"/>
-      <c r="N946" s="1"/>
-      <c r="O946" s="1"/>
+      <c r="M946" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N946" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O946" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="947" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A947" s="1" t="s">
@@ -47504,9 +47766,15 @@
       <c r="L947" s="1">
         <v>1</v>
       </c>
-      <c r="M947" s="1"/>
-      <c r="N947" s="1"/>
-      <c r="O947" s="1"/>
+      <c r="M947" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N947" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O947" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="948" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A948" s="1" t="s">
@@ -47545,9 +47813,15 @@
       <c r="L948" s="1">
         <v>1</v>
       </c>
-      <c r="M948" s="1"/>
-      <c r="N948" s="1"/>
-      <c r="O948" s="1"/>
+      <c r="M948" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N948" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O948" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="949" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A949" s="1" t="s">
@@ -47586,9 +47860,15 @@
       <c r="L949" s="1">
         <v>1</v>
       </c>
-      <c r="M949" s="1"/>
-      <c r="N949" s="1"/>
-      <c r="O949" s="1"/>
+      <c r="M949" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N949" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O949" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="950" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A950" s="1" t="s">
@@ -47627,9 +47907,15 @@
       <c r="L950" s="1">
         <v>1</v>
       </c>
-      <c r="M950" s="1"/>
-      <c r="N950" s="1"/>
-      <c r="O950" s="1"/>
+      <c r="M950" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N950" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O950" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="951" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A951" s="1" t="s">
@@ -47668,9 +47954,15 @@
       <c r="L951" s="1">
         <v>1</v>
       </c>
-      <c r="M951" s="1"/>
-      <c r="N951" s="1"/>
-      <c r="O951" s="1"/>
+      <c r="M951" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N951" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O951" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="952" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A952" s="1" t="s">
@@ -47709,9 +48001,15 @@
       <c r="L952" s="1">
         <v>1</v>
       </c>
-      <c r="M952" s="1"/>
-      <c r="N952" s="1"/>
-      <c r="O952" s="1"/>
+      <c r="M952" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N952" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O952" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="953" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A953" s="1" t="s">
@@ -47750,9 +48048,15 @@
       <c r="L953" s="1">
         <v>1</v>
       </c>
-      <c r="M953" s="1"/>
-      <c r="N953" s="1"/>
-      <c r="O953" s="1"/>
+      <c r="M953" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N953" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O953" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="954" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A954" s="1" t="s">
@@ -47791,9 +48095,15 @@
       <c r="L954" s="1">
         <v>1</v>
       </c>
-      <c r="M954" s="1"/>
-      <c r="N954" s="1"/>
-      <c r="O954" s="1"/>
+      <c r="M954" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N954" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O954" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="955" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A955" s="1" t="s">
@@ -47832,9 +48142,15 @@
       <c r="L955" s="1">
         <v>1</v>
       </c>
-      <c r="M955" s="1"/>
-      <c r="N955" s="1"/>
-      <c r="O955" s="1"/>
+      <c r="M955" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N955" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O955" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="956" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A956" s="1" t="s">
@@ -47873,9 +48189,15 @@
       <c r="L956" s="1">
         <v>1</v>
       </c>
-      <c r="M956" s="1"/>
-      <c r="N956" s="1"/>
-      <c r="O956" s="1"/>
+      <c r="M956" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N956" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O956" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="957" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A957" s="1" t="s">
@@ -47914,9 +48236,15 @@
       <c r="L957" s="1">
         <v>1</v>
       </c>
-      <c r="M957" s="1"/>
-      <c r="N957" s="1"/>
-      <c r="O957" s="1"/>
+      <c r="M957" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N957" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O957" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="958" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A958" s="1" t="s">
@@ -47955,9 +48283,15 @@
       <c r="L958" s="1">
         <v>1</v>
       </c>
-      <c r="M958" s="1"/>
-      <c r="N958" s="1"/>
-      <c r="O958" s="1"/>
+      <c r="M958" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N958" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O958" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="959" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A959" s="1" t="s">
@@ -47996,9 +48330,15 @@
       <c r="L959" s="1">
         <v>1</v>
       </c>
-      <c r="M959" s="1"/>
-      <c r="N959" s="1"/>
-      <c r="O959" s="1"/>
+      <c r="M959" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N959" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O959" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="960" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A960" s="1" t="s">
@@ -48037,9 +48377,15 @@
       <c r="L960" s="1">
         <v>1</v>
       </c>
-      <c r="M960" s="1"/>
-      <c r="N960" s="1"/>
-      <c r="O960" s="1"/>
+      <c r="M960" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N960" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O960" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="961" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A961" s="1" t="s">
@@ -48078,9 +48424,15 @@
       <c r="L961" s="1">
         <v>1</v>
       </c>
-      <c r="M961" s="1"/>
-      <c r="N961" s="1"/>
-      <c r="O961" s="1"/>
+      <c r="M961" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N961" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O961" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="962" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A962" s="1" t="s">
@@ -48119,9 +48471,15 @@
       <c r="L962" s="1">
         <v>1</v>
       </c>
-      <c r="M962" s="1"/>
-      <c r="N962" s="1"/>
-      <c r="O962" s="1"/>
+      <c r="M962" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N962" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O962" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="963" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A963" s="1" t="s">
@@ -48160,9 +48518,15 @@
       <c r="L963" s="1">
         <v>1</v>
       </c>
-      <c r="M963" s="1"/>
-      <c r="N963" s="1"/>
-      <c r="O963" s="1"/>
+      <c r="M963" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N963" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O963" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="964" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A964" s="1" t="s">
@@ -48201,9 +48565,15 @@
       <c r="L964" s="1">
         <v>1</v>
       </c>
-      <c r="M964" s="1"/>
-      <c r="N964" s="1"/>
-      <c r="O964" s="1"/>
+      <c r="M964" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N964" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O964" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="965" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A965" s="1" t="s">
@@ -48242,9 +48612,15 @@
       <c r="L965" s="1">
         <v>1</v>
       </c>
-      <c r="M965" s="1"/>
-      <c r="N965" s="1"/>
-      <c r="O965" s="1"/>
+      <c r="M965" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N965" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O965" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="966" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A966" s="1" t="s">
@@ -48283,9 +48659,15 @@
       <c r="L966" s="1">
         <v>1</v>
       </c>
-      <c r="M966" s="1"/>
-      <c r="N966" s="1"/>
-      <c r="O966" s="1"/>
+      <c r="M966" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N966" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O966" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="967" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A967" s="1" t="s">
@@ -48324,9 +48706,15 @@
       <c r="L967" s="1">
         <v>1</v>
       </c>
-      <c r="M967" s="1"/>
-      <c r="N967" s="1"/>
-      <c r="O967" s="1"/>
+      <c r="M967" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N967" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O967" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="968" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A968" s="1" t="s">
@@ -48365,9 +48753,15 @@
       <c r="L968" s="1">
         <v>1</v>
       </c>
-      <c r="M968" s="1"/>
-      <c r="N968" s="1"/>
-      <c r="O968" s="1"/>
+      <c r="M968" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N968" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O968" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="969" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A969" s="1" t="s">
@@ -48406,9 +48800,15 @@
       <c r="L969" s="1">
         <v>1</v>
       </c>
-      <c r="M969" s="1"/>
-      <c r="N969" s="1"/>
-      <c r="O969" s="1"/>
+      <c r="M969" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N969" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O969" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="970" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A970" s="1" t="s">
@@ -48447,9 +48847,15 @@
       <c r="L970" s="1">
         <v>1</v>
       </c>
-      <c r="M970" s="1"/>
-      <c r="N970" s="1"/>
-      <c r="O970" s="1"/>
+      <c r="M970" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N970" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O970" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="971" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A971" s="1" t="s">
@@ -48488,9 +48894,15 @@
       <c r="L971" s="1">
         <v>1</v>
       </c>
-      <c r="M971" s="1"/>
-      <c r="N971" s="1"/>
-      <c r="O971" s="1"/>
+      <c r="M971" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N971" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O971" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="972" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A972" s="1" t="s">
@@ -48529,9 +48941,15 @@
       <c r="L972" s="1">
         <v>1</v>
       </c>
-      <c r="M972" s="1"/>
-      <c r="N972" s="1"/>
-      <c r="O972" s="1"/>
+      <c r="M972" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N972" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O972" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="973" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A973" s="1" t="s">
@@ -48570,9 +48988,15 @@
       <c r="L973" s="1">
         <v>1</v>
       </c>
-      <c r="M973" s="1"/>
-      <c r="N973" s="1"/>
-      <c r="O973" s="1"/>
+      <c r="M973" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N973" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O973" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="974" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A974" s="1" t="s">
@@ -48611,9 +49035,15 @@
       <c r="L974" s="1">
         <v>1</v>
       </c>
-      <c r="M974" s="1"/>
-      <c r="N974" s="1"/>
-      <c r="O974" s="1"/>
+      <c r="M974" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N974" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O974" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="975" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A975" s="1" t="s">
@@ -48652,9 +49082,15 @@
       <c r="L975" s="1">
         <v>1</v>
       </c>
-      <c r="M975" s="1"/>
-      <c r="N975" s="1"/>
-      <c r="O975" s="1"/>
+      <c r="M975" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N975" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O975" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="976" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A976" s="1" t="s">
@@ -48693,9 +49129,15 @@
       <c r="L976" s="1">
         <v>1</v>
       </c>
-      <c r="M976" s="1"/>
-      <c r="N976" s="1"/>
-      <c r="O976" s="1"/>
+      <c r="M976" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N976" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O976" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="977" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A977" s="1" t="s">
@@ -48734,9 +49176,15 @@
       <c r="L977" s="1">
         <v>1</v>
       </c>
-      <c r="M977" s="1"/>
-      <c r="N977" s="1"/>
-      <c r="O977" s="1"/>
+      <c r="M977" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N977" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O977" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="978" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A978" s="1" t="s">
@@ -48775,9 +49223,15 @@
       <c r="L978" s="1">
         <v>1</v>
       </c>
-      <c r="M978" s="1"/>
-      <c r="N978" s="1"/>
-      <c r="O978" s="1"/>
+      <c r="M978" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N978" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O978" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="979" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A979" s="1" t="s">
@@ -48816,9 +49270,15 @@
       <c r="L979" s="1">
         <v>1</v>
       </c>
-      <c r="M979" s="1"/>
-      <c r="N979" s="1"/>
-      <c r="O979" s="1"/>
+      <c r="M979" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N979" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O979" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="980" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A980" s="1" t="s">
@@ -48857,9 +49317,15 @@
       <c r="L980" s="1">
         <v>1</v>
       </c>
-      <c r="M980" s="1"/>
-      <c r="N980" s="1"/>
-      <c r="O980" s="1"/>
+      <c r="M980" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N980" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O980" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="981" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A981" s="1" t="s">
@@ -48898,9 +49364,15 @@
       <c r="L981" s="1">
         <v>1</v>
       </c>
-      <c r="M981" s="1"/>
-      <c r="N981" s="1"/>
-      <c r="O981" s="1"/>
+      <c r="M981" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N981" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O981" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="982" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A982" s="1" t="s">
@@ -48939,9 +49411,15 @@
       <c r="L982" s="1">
         <v>1</v>
       </c>
-      <c r="M982" s="1"/>
-      <c r="N982" s="1"/>
-      <c r="O982" s="1"/>
+      <c r="M982" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N982" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O982" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="983" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A983" s="1" t="s">
@@ -48980,9 +49458,15 @@
       <c r="L983" s="1">
         <v>1</v>
       </c>
-      <c r="M983" s="1"/>
-      <c r="N983" s="1"/>
-      <c r="O983" s="1"/>
+      <c r="M983" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N983" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O983" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="984" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A984" s="1" t="s">
@@ -49021,9 +49505,15 @@
       <c r="L984" s="1">
         <v>1</v>
       </c>
-      <c r="M984" s="1"/>
-      <c r="N984" s="1"/>
-      <c r="O984" s="1"/>
+      <c r="M984" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N984" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O984" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="985" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A985" s="1" t="s">
@@ -49062,9 +49552,15 @@
       <c r="L985" s="1">
         <v>1</v>
       </c>
-      <c r="M985" s="1"/>
-      <c r="N985" s="1"/>
-      <c r="O985" s="1"/>
+      <c r="M985" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N985" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O985" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="986" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A986" s="1" t="s">
@@ -49103,9 +49599,15 @@
       <c r="L986" s="1">
         <v>1</v>
       </c>
-      <c r="M986" s="1"/>
-      <c r="N986" s="1"/>
-      <c r="O986" s="1"/>
+      <c r="M986" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N986" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O986" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="987" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A987" s="1" t="s">
@@ -49144,9 +49646,15 @@
       <c r="L987" s="1">
         <v>1</v>
       </c>
-      <c r="M987" s="1"/>
-      <c r="N987" s="1"/>
-      <c r="O987" s="1"/>
+      <c r="M987" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N987" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O987" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="988" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A988" s="1" t="s">
@@ -49185,9 +49693,15 @@
       <c r="L988" s="1">
         <v>1</v>
       </c>
-      <c r="M988" s="1"/>
-      <c r="N988" s="1"/>
-      <c r="O988" s="1"/>
+      <c r="M988" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N988" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O988" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="989" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A989" s="1" t="s">
@@ -49226,9 +49740,15 @@
       <c r="L989" s="1">
         <v>1</v>
       </c>
-      <c r="M989" s="1"/>
-      <c r="N989" s="1"/>
-      <c r="O989" s="1"/>
+      <c r="M989" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N989" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O989" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="990" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A990" s="1" t="s">
@@ -49267,9 +49787,15 @@
       <c r="L990" s="1">
         <v>1</v>
       </c>
-      <c r="M990" s="1"/>
-      <c r="N990" s="1"/>
-      <c r="O990" s="1"/>
+      <c r="M990" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N990" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O990" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="991" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A991" s="1" t="s">
@@ -49308,9 +49834,15 @@
       <c r="L991" s="1">
         <v>1</v>
       </c>
-      <c r="M991" s="1"/>
-      <c r="N991" s="1"/>
-      <c r="O991" s="1"/>
+      <c r="M991" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N991" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O991" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="992" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A992" s="1" t="s">
@@ -49349,9 +49881,15 @@
       <c r="L992" s="1">
         <v>1</v>
       </c>
-      <c r="M992" s="1"/>
-      <c r="N992" s="1"/>
-      <c r="O992" s="1"/>
+      <c r="M992" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N992" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O992" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="993" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A993" s="1" t="s">
@@ -49390,9 +49928,15 @@
       <c r="L993" s="1">
         <v>1</v>
       </c>
-      <c r="M993" s="1"/>
-      <c r="N993" s="1"/>
-      <c r="O993" s="1"/>
+      <c r="M993" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N993" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O993" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="994" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A994" s="1" t="s">
@@ -49431,9 +49975,15 @@
       <c r="L994" s="1">
         <v>1</v>
       </c>
-      <c r="M994" s="1"/>
-      <c r="N994" s="1"/>
-      <c r="O994" s="1"/>
+      <c r="M994" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N994" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O994" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="995" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A995" s="1" t="s">
@@ -49472,9 +50022,15 @@
       <c r="L995" s="1">
         <v>1</v>
       </c>
-      <c r="M995" s="1"/>
-      <c r="N995" s="1"/>
-      <c r="O995" s="1"/>
+      <c r="M995" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N995" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O995" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="996" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A996" s="1" t="s">
@@ -49513,9 +50069,15 @@
       <c r="L996" s="1">
         <v>1</v>
       </c>
-      <c r="M996" s="1"/>
-      <c r="N996" s="1"/>
-      <c r="O996" s="1"/>
+      <c r="M996" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N996" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O996" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="997" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A997" s="1" t="s">
@@ -49554,9 +50116,15 @@
       <c r="L997" s="1">
         <v>1</v>
       </c>
-      <c r="M997" s="1"/>
-      <c r="N997" s="1"/>
-      <c r="O997" s="1"/>
+      <c r="M997" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N997" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O997" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="998" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A998" s="1" t="s">
@@ -49595,9 +50163,15 @@
       <c r="L998" s="1">
         <v>1</v>
       </c>
-      <c r="M998" s="1"/>
-      <c r="N998" s="1"/>
-      <c r="O998" s="1"/>
+      <c r="M998" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N998" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O998" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="999" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A999" s="1" t="s">
@@ -49636,9 +50210,15 @@
       <c r="L999" s="1">
         <v>1</v>
       </c>
-      <c r="M999" s="1"/>
-      <c r="N999" s="1"/>
-      <c r="O999" s="1"/>
+      <c r="M999" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N999" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O999" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1000" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1000" s="1" t="s">
@@ -49677,9 +50257,15 @@
       <c r="L1000" s="1">
         <v>1</v>
       </c>
-      <c r="M1000" s="1"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
+      <c r="M1000" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1000" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1000" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1001" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1001" s="1" t="s">
@@ -49718,9 +50304,15 @@
       <c r="L1001" s="1">
         <v>1</v>
       </c>
-      <c r="M1001" s="1"/>
-      <c r="N1001" s="1"/>
-      <c r="O1001" s="1"/>
+      <c r="M1001" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1001" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1001" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1002" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1002" s="1" t="s">
@@ -49759,9 +50351,15 @@
       <c r="L1002" s="1">
         <v>1</v>
       </c>
-      <c r="M1002" s="1"/>
-      <c r="N1002" s="1"/>
-      <c r="O1002" s="1"/>
+      <c r="M1002" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1002" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1002" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1003" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1003" s="1" t="s">
@@ -49800,9 +50398,15 @@
       <c r="L1003" s="1">
         <v>1</v>
       </c>
-      <c r="M1003" s="1"/>
-      <c r="N1003" s="1"/>
-      <c r="O1003" s="1"/>
+      <c r="M1003" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1003" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1003" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1004" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1004" s="1" t="s">
@@ -49841,9 +50445,15 @@
       <c r="L1004" s="1">
         <v>1</v>
       </c>
-      <c r="M1004" s="1"/>
-      <c r="N1004" s="1"/>
-      <c r="O1004" s="1"/>
+      <c r="M1004" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1004" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1004" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1005" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1005" s="1" t="s">
@@ -49882,9 +50492,15 @@
       <c r="L1005" s="1">
         <v>1</v>
       </c>
-      <c r="M1005" s="1"/>
-      <c r="N1005" s="1"/>
-      <c r="O1005" s="1"/>
+      <c r="M1005" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1005" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1005" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1006" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1006" s="1" t="s">
@@ -49923,9 +50539,15 @@
       <c r="L1006" s="1">
         <v>1</v>
       </c>
-      <c r="M1006" s="1"/>
-      <c r="N1006" s="1"/>
-      <c r="O1006" s="1"/>
+      <c r="M1006" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1006" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1006" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1007" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1007" s="1" t="s">
@@ -49964,9 +50586,15 @@
       <c r="L1007" s="1">
         <v>1</v>
       </c>
-      <c r="M1007" s="1"/>
-      <c r="N1007" s="1"/>
-      <c r="O1007" s="1"/>
+      <c r="M1007" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1007" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1007" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1008" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1008" s="1" t="s">
@@ -50005,9 +50633,15 @@
       <c r="L1008" s="1">
         <v>1</v>
       </c>
-      <c r="M1008" s="1"/>
-      <c r="N1008" s="1"/>
-      <c r="O1008" s="1"/>
+      <c r="M1008" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1008" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1008" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1009" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1009" s="1" t="s">
@@ -50046,9 +50680,15 @@
       <c r="L1009" s="1">
         <v>1</v>
       </c>
-      <c r="M1009" s="1"/>
-      <c r="N1009" s="1"/>
-      <c r="O1009" s="1"/>
+      <c r="M1009" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1009" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1009" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1010" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1010" s="1" t="s">
@@ -50087,9 +50727,15 @@
       <c r="L1010" s="1">
         <v>1</v>
       </c>
-      <c r="M1010" s="1"/>
-      <c r="N1010" s="1"/>
-      <c r="O1010" s="1"/>
+      <c r="M1010" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1010" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1010" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1011" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1011" s="1" t="s">
@@ -50128,9 +50774,15 @@
       <c r="L1011" s="1">
         <v>1</v>
       </c>
-      <c r="M1011" s="1"/>
-      <c r="N1011" s="1"/>
-      <c r="O1011" s="1"/>
+      <c r="M1011" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1011" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1011" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1012" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1012" s="1" t="s">
@@ -50169,9 +50821,15 @@
       <c r="L1012" s="1">
         <v>1</v>
       </c>
-      <c r="M1012" s="1"/>
-      <c r="N1012" s="1"/>
-      <c r="O1012" s="1"/>
+      <c r="M1012" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1012" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1012" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1013" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1013" s="1" t="s">
@@ -50210,9 +50868,15 @@
       <c r="L1013" s="1">
         <v>1</v>
       </c>
-      <c r="M1013" s="1"/>
-      <c r="N1013" s="1"/>
-      <c r="O1013" s="1"/>
+      <c r="M1013" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1013" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1013" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1014" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1014" s="1" t="s">
@@ -50251,9 +50915,15 @@
       <c r="L1014" s="1">
         <v>1</v>
       </c>
-      <c r="M1014" s="1"/>
-      <c r="N1014" s="1"/>
-      <c r="O1014" s="1"/>
+      <c r="M1014" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1014" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1014" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1015" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1015" s="1" t="s">
@@ -50292,9 +50962,15 @@
       <c r="L1015" s="1">
         <v>1</v>
       </c>
-      <c r="M1015" s="1"/>
-      <c r="N1015" s="1"/>
-      <c r="O1015" s="1"/>
+      <c r="M1015" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1015" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1015" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1016" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1016" s="1" t="s">
@@ -50333,9 +51009,15 @@
       <c r="L1016" s="1">
         <v>1</v>
       </c>
-      <c r="M1016" s="1"/>
-      <c r="N1016" s="1"/>
-      <c r="O1016" s="1"/>
+      <c r="M1016" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1016" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1016" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1017" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1017" s="1" t="s">
@@ -50374,9 +51056,15 @@
       <c r="L1017" s="1">
         <v>1</v>
       </c>
-      <c r="M1017" s="1"/>
-      <c r="N1017" s="1"/>
-      <c r="O1017" s="1"/>
+      <c r="M1017" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1017" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1017" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1018" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1018" s="1" t="s">
@@ -50415,9 +51103,15 @@
       <c r="L1018" s="1">
         <v>1</v>
       </c>
-      <c r="M1018" s="1"/>
-      <c r="N1018" s="1"/>
-      <c r="O1018" s="1"/>
+      <c r="M1018" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1018" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1018" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1019" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1019" s="1" t="s">
@@ -50456,9 +51150,15 @@
       <c r="L1019" s="1">
         <v>1</v>
       </c>
-      <c r="M1019" s="1"/>
-      <c r="N1019" s="1"/>
-      <c r="O1019" s="1"/>
+      <c r="M1019" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1019" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1019" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1020" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1020" s="1" t="s">
@@ -50497,9 +51197,15 @@
       <c r="L1020" s="1">
         <v>1</v>
       </c>
-      <c r="M1020" s="1"/>
-      <c r="N1020" s="1"/>
-      <c r="O1020" s="1"/>
+      <c r="M1020" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1020" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1020" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1021" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1021" s="1" t="s">
@@ -50538,9 +51244,15 @@
       <c r="L1021" s="1">
         <v>1</v>
       </c>
-      <c r="M1021" s="1"/>
-      <c r="N1021" s="1"/>
-      <c r="O1021" s="1"/>
+      <c r="M1021" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1021" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1021" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1022" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1022" s="1" t="s">
@@ -50579,9 +51291,15 @@
       <c r="L1022" s="1">
         <v>1</v>
       </c>
-      <c r="M1022" s="1"/>
-      <c r="N1022" s="1"/>
-      <c r="O1022" s="1"/>
+      <c r="M1022" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1022" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1022" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1023" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1023" s="1" t="s">
@@ -50620,9 +51338,15 @@
       <c r="L1023" s="1">
         <v>1</v>
       </c>
-      <c r="M1023" s="1"/>
-      <c r="N1023" s="1"/>
-      <c r="O1023" s="1"/>
+      <c r="M1023" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1023" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1023" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1024" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1024" s="1" t="s">
@@ -50661,9 +51385,15 @@
       <c r="L1024" s="1">
         <v>1</v>
       </c>
-      <c r="M1024" s="1"/>
-      <c r="N1024" s="1"/>
-      <c r="O1024" s="1"/>
+      <c r="M1024" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1024" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1024" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1025" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1025" s="1" t="s">
@@ -50702,9 +51432,15 @@
       <c r="L1025" s="1">
         <v>1</v>
       </c>
-      <c r="M1025" s="1"/>
-      <c r="N1025" s="1"/>
-      <c r="O1025" s="1"/>
+      <c r="M1025" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1025" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1025" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1026" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1026" s="1" t="s">
@@ -50743,9 +51479,15 @@
       <c r="L1026" s="1">
         <v>1</v>
       </c>
-      <c r="M1026" s="1"/>
-      <c r="N1026" s="1"/>
-      <c r="O1026" s="1"/>
+      <c r="M1026" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1026" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1026" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1027" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1027" s="1" t="s">
@@ -50784,9 +51526,15 @@
       <c r="L1027" s="1">
         <v>1</v>
       </c>
-      <c r="M1027" s="1"/>
-      <c r="N1027" s="1"/>
-      <c r="O1027" s="1"/>
+      <c r="M1027" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1027" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1027" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1028" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1028" s="1" t="s">
@@ -50825,9 +51573,15 @@
       <c r="L1028" s="1">
         <v>1</v>
       </c>
-      <c r="M1028" s="1"/>
-      <c r="N1028" s="1"/>
-      <c r="O1028" s="1"/>
+      <c r="M1028" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1028" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1028" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1029" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1029" s="1" t="s">
@@ -50866,9 +51620,15 @@
       <c r="L1029" s="1">
         <v>1</v>
       </c>
-      <c r="M1029" s="1"/>
-      <c r="N1029" s="1"/>
-      <c r="O1029" s="1"/>
+      <c r="M1029" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1029" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1029" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1030" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1030" s="1" t="s">
@@ -50907,9 +51667,15 @@
       <c r="L1030" s="1">
         <v>1</v>
       </c>
-      <c r="M1030" s="1"/>
-      <c r="N1030" s="1"/>
-      <c r="O1030" s="1"/>
+      <c r="M1030" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1030" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1030" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1031" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1031" s="1" t="s">
@@ -50948,9 +51714,15 @@
       <c r="L1031" s="1">
         <v>1</v>
       </c>
-      <c r="M1031" s="1"/>
-      <c r="N1031" s="1"/>
-      <c r="O1031" s="1"/>
+      <c r="M1031" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1031" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1031" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1032" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1032" s="1" t="s">
@@ -50989,9 +51761,15 @@
       <c r="L1032" s="1">
         <v>1</v>
       </c>
-      <c r="M1032" s="1"/>
-      <c r="N1032" s="1"/>
-      <c r="O1032" s="1"/>
+      <c r="M1032" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1032" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1032" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1033" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1033" s="1" t="s">
@@ -51030,9 +51808,15 @@
       <c r="L1033" s="1">
         <v>1</v>
       </c>
-      <c r="M1033" s="1"/>
-      <c r="N1033" s="1"/>
-      <c r="O1033" s="1"/>
+      <c r="M1033" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1033" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1033" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1034" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1034" s="1" t="s">
@@ -51071,9 +51855,15 @@
       <c r="L1034" s="1">
         <v>1</v>
       </c>
-      <c r="M1034" s="1"/>
-      <c r="N1034" s="1"/>
-      <c r="O1034" s="1"/>
+      <c r="M1034" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1034" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1034" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1035" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1035" s="1" t="s">
@@ -51112,9 +51902,15 @@
       <c r="L1035" s="1">
         <v>1</v>
       </c>
-      <c r="M1035" s="1"/>
-      <c r="N1035" s="1"/>
-      <c r="O1035" s="1"/>
+      <c r="M1035" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1035" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1035" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1036" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1036" s="1" t="s">
@@ -51153,9 +51949,15 @@
       <c r="L1036" s="1">
         <v>1</v>
       </c>
-      <c r="M1036" s="1"/>
-      <c r="N1036" s="1"/>
-      <c r="O1036" s="1"/>
+      <c r="M1036" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1036" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1036" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1037" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1037" s="1" t="s">
@@ -51194,9 +51996,15 @@
       <c r="L1037" s="1">
         <v>1</v>
       </c>
-      <c r="M1037" s="1"/>
-      <c r="N1037" s="1"/>
-      <c r="O1037" s="1"/>
+      <c r="M1037" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1037" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1037" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1038" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1038" s="1" t="s">
@@ -51235,9 +52043,15 @@
       <c r="L1038" s="1">
         <v>1</v>
       </c>
-      <c r="M1038" s="1"/>
-      <c r="N1038" s="1"/>
-      <c r="O1038" s="1"/>
+      <c r="M1038" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1038" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1038" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1039" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1039" s="1" t="s">
@@ -51276,9 +52090,15 @@
       <c r="L1039" s="1">
         <v>1</v>
       </c>
-      <c r="M1039" s="1"/>
-      <c r="N1039" s="1"/>
-      <c r="O1039" s="1"/>
+      <c r="M1039" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1039" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1039" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1040" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1040" s="1" t="s">
@@ -51317,9 +52137,15 @@
       <c r="L1040" s="1">
         <v>1</v>
       </c>
-      <c r="M1040" s="1"/>
-      <c r="N1040" s="1"/>
-      <c r="O1040" s="1"/>
+      <c r="M1040" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1040" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1040" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1041" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1041" s="1" t="s">
@@ -51358,9 +52184,15 @@
       <c r="L1041" s="1">
         <v>1</v>
       </c>
-      <c r="M1041" s="1"/>
-      <c r="N1041" s="1"/>
-      <c r="O1041" s="1"/>
+      <c r="M1041" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1041" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1041" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1042" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1042" s="1" t="s">
@@ -51399,9 +52231,15 @@
       <c r="L1042" s="1">
         <v>1</v>
       </c>
-      <c r="M1042" s="1"/>
-      <c r="N1042" s="1"/>
-      <c r="O1042" s="1"/>
+      <c r="M1042" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1042" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1042" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1043" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1043" s="1" t="s">
@@ -51440,9 +52278,15 @@
       <c r="L1043" s="1">
         <v>1</v>
       </c>
-      <c r="M1043" s="1"/>
-      <c r="N1043" s="1"/>
-      <c r="O1043" s="1"/>
+      <c r="M1043" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1043" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1043" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1044" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1044" s="1" t="s">
@@ -51481,9 +52325,15 @@
       <c r="L1044" s="1">
         <v>1</v>
       </c>
-      <c r="M1044" s="1"/>
-      <c r="N1044" s="1"/>
-      <c r="O1044" s="1"/>
+      <c r="M1044" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1044" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1044" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1045" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1045" s="1" t="s">
@@ -51522,9 +52372,15 @@
       <c r="L1045" s="1">
         <v>1</v>
       </c>
-      <c r="M1045" s="1"/>
-      <c r="N1045" s="1"/>
-      <c r="O1045" s="1"/>
+      <c r="M1045" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1045" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1045" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1046" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1046" s="1" t="s">
@@ -51563,9 +52419,15 @@
       <c r="L1046" s="1">
         <v>1</v>
       </c>
-      <c r="M1046" s="1"/>
-      <c r="N1046" s="1"/>
-      <c r="O1046" s="1"/>
+      <c r="M1046" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1046" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1046" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1047" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1047" s="1" t="s">
@@ -51604,9 +52466,15 @@
       <c r="L1047" s="1">
         <v>1</v>
       </c>
-      <c r="M1047" s="1"/>
-      <c r="N1047" s="1"/>
-      <c r="O1047" s="1"/>
+      <c r="M1047" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1047" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1047" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1048" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1048" s="1" t="s">
@@ -51645,9 +52513,15 @@
       <c r="L1048" s="1">
         <v>1</v>
       </c>
-      <c r="M1048" s="1"/>
-      <c r="N1048" s="1"/>
-      <c r="O1048" s="1"/>
+      <c r="M1048" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1048" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1048" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1049" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1049" s="1" t="s">
@@ -51686,9 +52560,15 @@
       <c r="L1049" s="1">
         <v>1</v>
       </c>
-      <c r="M1049" s="1"/>
-      <c r="N1049" s="1"/>
-      <c r="O1049" s="1"/>
+      <c r="M1049" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1049" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1049" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1050" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1050" s="1" t="s">
@@ -51727,9 +52607,15 @@
       <c r="L1050" s="1">
         <v>1</v>
       </c>
-      <c r="M1050" s="1"/>
-      <c r="N1050" s="1"/>
-      <c r="O1050" s="1"/>
+      <c r="M1050" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1050" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1050" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1051" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1051" s="1" t="s">
@@ -51768,9 +52654,15 @@
       <c r="L1051" s="1">
         <v>1</v>
       </c>
-      <c r="M1051" s="1"/>
-      <c r="N1051" s="1"/>
-      <c r="O1051" s="1"/>
+      <c r="M1051" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1051" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1051" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1052" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1052" s="1" t="s">
@@ -51809,9 +52701,15 @@
       <c r="L1052" s="1">
         <v>1</v>
       </c>
-      <c r="M1052" s="1"/>
-      <c r="N1052" s="1"/>
-      <c r="O1052" s="1"/>
+      <c r="M1052" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1052" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1052" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1053" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1053" s="1" t="s">
@@ -51850,9 +52748,15 @@
       <c r="L1053" s="1">
         <v>1</v>
       </c>
-      <c r="M1053" s="1"/>
-      <c r="N1053" s="1"/>
-      <c r="O1053" s="1"/>
+      <c r="M1053" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1053" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1053" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1054" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1054" s="1" t="s">
@@ -51891,9 +52795,15 @@
       <c r="L1054" s="1">
         <v>1</v>
       </c>
-      <c r="M1054" s="1"/>
-      <c r="N1054" s="1"/>
-      <c r="O1054" s="1"/>
+      <c r="M1054" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1054" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1054" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1055" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1055" s="1" t="s">
@@ -51932,9 +52842,15 @@
       <c r="L1055" s="1">
         <v>1</v>
       </c>
-      <c r="M1055" s="1"/>
-      <c r="N1055" s="1"/>
-      <c r="O1055" s="1"/>
+      <c r="M1055" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1055" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1055" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1056" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1056" s="1" t="s">
@@ -51973,9 +52889,15 @@
       <c r="L1056" s="1">
         <v>1</v>
       </c>
-      <c r="M1056" s="1"/>
-      <c r="N1056" s="1"/>
-      <c r="O1056" s="1"/>
+      <c r="M1056" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1056" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1056" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1057" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1057" s="1" t="s">
@@ -52014,9 +52936,15 @@
       <c r="L1057" s="1">
         <v>1</v>
       </c>
-      <c r="M1057" s="1"/>
-      <c r="N1057" s="1"/>
-      <c r="O1057" s="1"/>
+      <c r="M1057" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1057" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1057" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1058" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1058" s="1" t="s">
@@ -52055,9 +52983,15 @@
       <c r="L1058" s="1">
         <v>1</v>
       </c>
-      <c r="M1058" s="1"/>
-      <c r="N1058" s="1"/>
-      <c r="O1058" s="1"/>
+      <c r="M1058" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1058" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1058" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="1059" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1059" s="1" t="s">
@@ -52096,9 +53030,15 @@
       <c r="L1059" s="1">
         <v>1</v>
       </c>
-      <c r="M1059" s="1"/>
-      <c r="N1059" s="1"/>
-      <c r="O1059" s="1"/>
+      <c r="M1059" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1059" s="2">
+        <v>45566</v>
+      </c>
+      <c r="O1059" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O719" xr:uid="{729FF14D-B4BC-48C2-9FB4-6F7694E55182}"/>
